--- a/medicine/Psychotrope/Théophile_Vossen/Théophile_Vossen.xlsx
+++ b/medicine/Psychotrope/Théophile_Vossen/Théophile_Vossen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Th%C3%A9ophile_Vossen</t>
+          <t>Théophile_Vossen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Théophile Vossen, né à Lombeek-Notre-Dame, est le créateur de la gueuze Mort Subite et était le tenancier du café La Cour royale[1],[2],[3]. On y jouait des parties de dés (pitjesbak (nl)) où le perdant était appelé le mort, comme celles-ci avaient un certain succès, il décida de renommer son café À la mort subite[4],[1],[2],[3].
-En 1910, il acheta un bâtiment, rue des Capucins et devint coupeur de bière[5]. Il est surtout connu pour être l'inventeur en 1910[N 1],[6] de la bière Mort subite[4] dont le nom qui provient du café fut donné en 1928. 
-Son café et sa brasserie furent repris par ses fils puis ses petits-fils. Ce sont toujours ses arrière-petits-enfants qui tiennent le café, rue Montagne aux Herbes Potagères à Bruxelles[1].
-En 1972[5], la brasserie et la bière furent vendues à la brasserie De Keersmaeker qui par la suite prit le nom de Brasserie Mort Subite.
-Il est par ailleurs un cousin germain de Frans Van Cauwelaert [7], homme politique belge, bourgmestre d'Anvers et président de la Chambre des Représentants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théophile Vossen, né à Lombeek-Notre-Dame, est le créateur de la gueuze Mort Subite et était le tenancier du café La Cour royale. On y jouait des parties de dés (pitjesbak (nl)) où le perdant était appelé le mort, comme celles-ci avaient un certain succès, il décida de renommer son café À la mort subite.
+En 1910, il acheta un bâtiment, rue des Capucins et devint coupeur de bière. Il est surtout connu pour être l'inventeur en 1910[N 1], de la bière Mort subite dont le nom qui provient du café fut donné en 1928. 
+Son café et sa brasserie furent repris par ses fils puis ses petits-fils. Ce sont toujours ses arrière-petits-enfants qui tiennent le café, rue Montagne aux Herbes Potagères à Bruxelles.
+En 1972, la brasserie et la bière furent vendues à la brasserie De Keersmaeker qui par la suite prit le nom de Brasserie Mort Subite.
+Il est par ailleurs un cousin germain de Frans Van Cauwelaert , homme politique belge, bourgmestre d'Anvers et président de la Chambre des Représentants.
 </t>
         </is>
       </c>
